--- a/Bridge2College/Mycroforest Feedback 19 June 2024 (Responses).xlsx
+++ b/Bridge2College/Mycroforest Feedback 19 June 2024 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Bridge2College\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE3AEE-4336-4979-B0B0-F8E8545F3BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464C986-3751-4D68-A73B-BC1954E0B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t xml:space="preserve">Chop it down and make some money then buy a yacht </t>
   </si>
   <si>
-    <t>👍</t>
-  </si>
-  <si>
     <t>How easy it was to use</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Thumbs up.</t>
+  </si>
+  <si>
+    <t>Thunbs up</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +380,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -671,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -766,21 +760,6 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,12 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -865,11 +838,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,9 +1082,9 @@
   </sheetPr>
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1190,22 +1181,22 @@
         <v>26</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="AI1" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="24.9" x14ac:dyDescent="0.3">
@@ -1290,8 +1281,8 @@
       <c r="AA2" s="8">
         <v>8</v>
       </c>
-      <c r="AC2" s="34" t="s">
-        <v>73</v>
+      <c r="AC2" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="AD2" s="10">
         <f t="shared" ref="AD2:AD11" si="0">AVERAGE(B2:Q2)</f>
@@ -1313,10 +1304,10 @@
         <f>AVERAGE(R2:U2)</f>
         <v>2</v>
       </c>
-      <c r="AK2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="33"/>
+      <c r="AK2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -1400,7 +1391,7 @@
       <c r="AA3" s="8">
         <v>8</v>
       </c>
-      <c r="AC3" s="35"/>
+      <c r="AC3" s="64"/>
       <c r="AD3" s="10">
         <f t="shared" si="0"/>
         <v>2.0625</v>
@@ -1422,10 +1413,10 @@
         <v>1.75</v>
       </c>
       <c r="AK3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL3" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="AL3" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
@@ -1510,7 +1501,7 @@
       <c r="AA4" s="8">
         <v>10</v>
       </c>
-      <c r="AC4" s="35"/>
+      <c r="AC4" s="64"/>
       <c r="AD4" s="10">
         <f t="shared" si="0"/>
         <v>1.625</v>
@@ -1533,7 +1524,7 @@
       </c>
       <c r="AK4" s="20"/>
       <c r="AL4" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="6" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.3">
@@ -1558,7 +1549,7 @@
       <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="8">
         <v>7</v>
       </c>
       <c r="I5" s="8">
@@ -1576,10 +1567,10 @@
       <c r="M5" s="8">
         <v>3</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="8">
         <v>7</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="8">
         <v>5</v>
       </c>
       <c r="P5" s="8">
@@ -1588,16 +1579,16 @@
       <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="8">
         <v>7</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="8">
         <v>7</v>
       </c>
       <c r="T5" s="8">
         <v>4</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="8">
         <v>5</v>
       </c>
       <c r="V5" s="5" t="s">
@@ -1610,15 +1601,15 @@
         <v>41</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="64"/>
       <c r="AD5" s="10">
         <f t="shared" si="0"/>
         <v>4.1875</v>
@@ -1641,7 +1632,7 @@
       </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="6" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
@@ -1709,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="V6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="X6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="Z6" s="8">
         <v>8</v>
@@ -1726,7 +1717,7 @@
       <c r="AA6" s="8">
         <v>8</v>
       </c>
-      <c r="AC6" s="35"/>
+      <c r="AC6" s="64"/>
       <c r="AD6" s="10">
         <f t="shared" si="0"/>
         <v>1.625</v>
@@ -1749,7 +1740,7 @@
       </c>
       <c r="AK6" s="18"/>
       <c r="AL6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="6" customFormat="1" ht="62.15" x14ac:dyDescent="0.3">
@@ -1817,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="V7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="68" t="s">
+      <c r="Y7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="Z7" s="8">
         <v>6</v>
@@ -1834,7 +1825,7 @@
       <c r="AA7" s="8">
         <v>3</v>
       </c>
-      <c r="AC7" s="35"/>
+      <c r="AC7" s="64"/>
       <c r="AD7" s="10">
         <f t="shared" si="0"/>
         <v>1.4375</v>
@@ -1921,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="V8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="Z8" s="8">
         <v>9</v>
@@ -1938,7 +1929,7 @@
       <c r="AA8" s="8">
         <v>10</v>
       </c>
-      <c r="AC8" s="35"/>
+      <c r="AC8" s="64"/>
       <c r="AD8" s="10">
         <f t="shared" si="0"/>
         <v>1.625</v>
@@ -1991,7 +1982,7 @@
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="8">
         <v>5</v>
       </c>
       <c r="L9" s="8">
@@ -2025,16 +2016,16 @@
         <v>1</v>
       </c>
       <c r="V9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="X9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="68" t="s">
+      <c r="Y9" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="Z9" s="8">
         <v>7</v>
@@ -2042,7 +2033,7 @@
       <c r="AA9" s="8">
         <v>9</v>
       </c>
-      <c r="AC9" s="35"/>
+      <c r="AC9" s="64"/>
       <c r="AD9" s="10">
         <f t="shared" si="0"/>
         <v>2.25</v>
@@ -2129,16 +2120,16 @@
         <v>2</v>
       </c>
       <c r="V10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="Y10" s="60" t="s">
         <v>61</v>
-      </c>
-      <c r="Y10" s="68" t="s">
-        <v>62</v>
       </c>
       <c r="Z10" s="8">
         <v>7</v>
@@ -2146,7 +2137,7 @@
       <c r="AA10" s="8">
         <v>8</v>
       </c>
-      <c r="AC10" s="35"/>
+      <c r="AC10" s="64"/>
       <c r="AD10" s="10">
         <f t="shared" si="0"/>
         <v>1.6875</v>
@@ -2190,7 +2181,7 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="8">
         <v>7</v>
       </c>
       <c r="I11" s="8">
@@ -2233,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="V11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="X11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="Z11" s="8">
         <v>8</v>
@@ -2250,7 +2241,7 @@
       <c r="AA11" s="8">
         <v>7</v>
       </c>
-      <c r="AC11" s="35"/>
+      <c r="AC11" s="64"/>
       <c r="AD11" s="10">
         <f t="shared" si="0"/>
         <v>1.75</v>
@@ -2273,8 +2264,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="46"/>
       <c r="AC12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="12">
         <f>AVERAGE(AD2:AD11)</f>
@@ -2317,34 +2309,34 @@
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.84375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="2.84375" style="38" customWidth="1"/>
     <col min="3" max="7" width="10.69140625" customWidth="1"/>
     <col min="8" max="8" width="2.69140625" customWidth="1"/>
     <col min="9" max="10" width="25.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="42"/>
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="42" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -2352,12 +2344,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="36" t="s">
-        <v>73</v>
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="D2" s="28">
         <v>3.25</v>
@@ -2368,11 +2360,11 @@
       <c r="F2" s="28">
         <v>2.6666666666666665</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="40">
         <v>2.6666666666666665</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="43" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="29" t="s">
@@ -2380,11 +2372,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="28">
         <v>2.0625</v>
       </c>
@@ -2394,11 +2386,11 @@
       <c r="F3" s="28">
         <v>2.1666666666666665</v>
       </c>
-      <c r="G3" s="45">
-        <v>2</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="40">
+        <v>2</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="43" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="29" t="s">
@@ -2406,11 +2398,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="28">
         <v>1.625</v>
       </c>
@@ -2420,11 +2412,11 @@
       <c r="F4" s="28">
         <v>2.5</v>
       </c>
-      <c r="G4" s="45">
-        <v>1</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="48" t="s">
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="43" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="29" t="s">
@@ -2432,11 +2424,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="28">
         <v>4.1875</v>
       </c>
@@ -2446,11 +2438,11 @@
       <c r="F5" s="28">
         <v>4.166666666666667</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="40">
         <v>5.333333333333333</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="43" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="29" t="s">
@@ -2458,11 +2450,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="28">
         <v>1.625</v>
       </c>
@@ -2472,23 +2464,23 @@
       <c r="F6" s="28">
         <v>1.6666666666666667</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="40">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="28">
         <v>1.4375</v>
       </c>
@@ -2498,23 +2490,23 @@
       <c r="F7" s="28">
         <v>1.6666666666666667</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="40">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="48" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="28">
         <v>1.625</v>
       </c>
@@ -2524,23 +2516,23 @@
       <c r="F8" s="28">
         <v>2.1666666666666665</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="28">
         <v>2.25</v>
       </c>
@@ -2550,23 +2542,23 @@
       <c r="F9" s="28">
         <v>2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="40">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="48" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="10" spans="1:10" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="28">
         <v>1.6875</v>
       </c>
@@ -2576,23 +2568,23 @@
       <c r="F10" s="28">
         <v>2</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="40">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="48" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="28">
         <v>1.75</v>
       </c>
@@ -2602,24 +2594,24 @@
       <c r="F11" s="28">
         <v>2.3333333333333335</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="40">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="37">
+        <v>71</v>
+      </c>
+      <c r="D12" s="32">
         <v>2.15</v>
       </c>
       <c r="E12" s="31">
@@ -2628,12 +2620,12 @@
       <c r="F12" s="31">
         <v>2.333333333333333</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="41">
         <v>2.0000000000000004</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2654,42 +2646,42 @@
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.84375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="2.84375" style="36" customWidth="1"/>
     <col min="3" max="4" width="10.69140625" customWidth="1"/>
     <col min="5" max="5" width="2.69140625" customWidth="1"/>
-    <col min="6" max="7" width="25.69140625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="25.69140625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="45">
-        <v>2</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="40">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="43" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -2697,16 +2689,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="45">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="40">
         <v>1.75</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="29" t="s">
@@ -2714,16 +2706,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="43" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="29" t="s">
@@ -2731,136 +2723,136 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="45">
+      <c r="B5" s="37"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="40">
         <v>5.75</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="48" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="45">
+      <c r="B7" s="37"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="40">
         <v>1.5</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="45">
-        <v>1</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="48" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="45">
-        <v>1</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="48" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="45">
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="40">
         <v>1.5</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="45">
-        <v>1</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="49" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="46">
+        <v>71</v>
+      </c>
+      <c r="D12" s="41">
         <v>1.75</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2882,145 +2874,145 @@
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.84375" style="41" customWidth="1"/>
-    <col min="3" max="4" width="25.69140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="2.84375" style="36" customWidth="1"/>
+    <col min="3" max="4" width="25.69140625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="62">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="55">
         <v>8</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="53">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="62">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="55">
         <v>8</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="62">
+      <c r="B4" s="37"/>
+      <c r="C4" s="55">
         <v>10</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="62">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63">
+      <c r="B5" s="37"/>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="62">
+      <c r="B6" s="37"/>
+      <c r="C6" s="55">
         <v>8</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="62">
+      <c r="B7" s="37"/>
+      <c r="C7" s="55">
         <v>6</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="53">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="62">
+      <c r="B8" s="37"/>
+      <c r="C8" s="55">
         <v>9</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="62">
+      <c r="B9" s="37"/>
+      <c r="C9" s="55">
         <v>7</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="56">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
+      <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="62">
+      <c r="B10" s="37"/>
+      <c r="C10" s="55">
         <v>7</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54">
+      <c r="A11" s="49">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="64">
+      <c r="B11" s="37"/>
+      <c r="C11" s="57">
         <v>8</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="58">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
